--- a/CYBERSECURITE/tryhackme/TRYHACKME.xlsx
+++ b/CYBERSECURITE/tryhackme/TRYHACKME.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MorganO'CONNOR\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B87D8C-9BE5-4A91-8464-765ABFCB7C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F523E1D1-785E-4025-8FAD-DB5BC9183C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{860CBA21-596F-46B1-A785-A399C7CF390B}"/>
   </bookViews>
@@ -1177,7 +1177,174 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>- Heat.net – Heating and Cooling</t>
+      <t xml:space="preserve">- Heat.net – Heating and Cooling
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>How many internal links are in the text of the article?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- heat.net/36/need-to-hire-a-commercial-heating-contractor/
+- 5
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>How many external links are in the text of the article?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Website in the article's only external link ( that isn't an ad)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- purchase.org
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Try to find the Google Analytics code linked to the site</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- En ouvrant la console et en inspectant le site web
+- UA-251372-24
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Is the the Google Analytics code in use on another website? Yay or nay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- la clé est unique
+- Nay
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Does the link to this website have any obvious affiliate codes embedded with it? Yay or Nay
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- c'est un lien direct, sans query et code annexe
+- Nay
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Use the tools in Task 4 to confirm the link between the two sites. Try hard to figure it out without the hint.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- En utilisant viewdns.info on remarque que "heat.net" et "purchase.org" sont tous les deux le même "IP Address Owner"
+- Liquid Web, l.l.c
+</t>
     </r>
   </si>
 </sst>
@@ -5143,8 +5310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCAA19E-460C-4A71-BCF9-59BA81788942}">
   <dimension ref="A1:AJ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N19" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17:AB42"/>
+    <sheetView tabSelected="1" topLeftCell="J17" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
